--- a/tests/testImportPrices.xlsx
+++ b/tests/testImportPrices.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mdrennen\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\DPRMC\ClearStructure-Sentry-DataService\tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -39,9 +39,6 @@
     <t>price</t>
   </si>
   <si>
-    <t>00075QAF9</t>
-  </si>
-  <si>
     <t>CUSIP</t>
   </si>
   <si>
@@ -52,12 +49,15 @@
   </si>
   <si>
     <t>DB</t>
+  </si>
+  <si>
+    <t>00764MAK3  </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -408,7 +408,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -443,47 +443,47 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
         <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
       </c>
       <c r="E2" s="2">
         <v>43101</v>
       </c>
       <c r="F2">
-        <v>222</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D3" t="s">
         <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>8</v>
       </c>
       <c r="E3" s="2">
         <v>43101</v>
       </c>
       <c r="F3">
-        <v>333</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="landscape"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>